--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1352.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1352.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153545428750205</v>
+        <v>1.213846683502197</v>
       </c>
       <c r="B1">
-        <v>2.606506867722844</v>
+        <v>2.555657625198364</v>
       </c>
       <c r="C1">
-        <v>4.150786697203262</v>
+        <v>9.103615760803223</v>
       </c>
       <c r="D1">
-        <v>2.624325332479175</v>
+        <v>2.071223735809326</v>
       </c>
       <c r="E1">
-        <v>1.166216291746432</v>
+        <v>1.19152569770813</v>
       </c>
     </row>
   </sheetData>
